--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -500,16 +500,13 @@
 </t>
   </si>
   <si>
-    <t>No code that identify this medication unless possibly if it is a magistral preparation, a hospital preparation or a virtual medication</t>
-  </si>
-  <si>
-    <t>Defines the text of the compound detailed in this compound Medication.</t>
+    <t>Codes that identify this medication</t>
+  </si>
+  <si>
+    <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
   </si>
   <si>
     <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) will have the coding.userSelected set to true.  As described in the coding datatype: "A coding may be marked as a "userSelected" if a user selected the particular coded value in a user interface (e.g. the user selects an item in a pick-list). If a user selected coding exists, it is the preferred choice for performing translations etc. Other codes can only be literal translations to alternative code systems, or codes at a lower level of granularity (e.g. a generic code for a vendor-specific primary one).</t>
-  </si>
-  <si>
-    <t>Text of compound SHALL be provided. Code MAY be provided</t>
   </si>
   <si>
     <t>example</t>
@@ -537,96 +534,6 @@
     <t>RXO-1.1-Requested Give Code.code / RXE-2.1-Give Code.code / RXD-2.1-Dispense/Give Code.code / RXG-4.1-Give Code.code /RXA-5.1-Administered Code.code / RXC-2.1 Component Code</t>
   </si>
   <si>
-    <t>Medication.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Medication.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Medication.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>Although a code might not be available for a compoud medicinal product, there is alway a denomination for it.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>Medication.status</t>
   </si>
   <si>
@@ -743,6 +650,22 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
@@ -750,6 +673,16 @@
   </si>
   <si>
     <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.ingredient.extension:IsVehicle</t>
@@ -879,6 +812,9 @@
   </si>
   <si>
     <t>Medication.batch.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Medication.batch.modifierExtension</t>
@@ -1221,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1258,7 +1194,7 @@
     <col min="26" max="26" width="46.03125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2544,7 +2480,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -2570,9 +2506,7 @@
       <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2596,13 +2530,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2635,24 +2569,24 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2669,21 +2603,23 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2708,13 +2644,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2732,7 +2668,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2744,13 +2680,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -2761,21 +2697,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2784,20 +2720,18 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -2834,51 +2768,51 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2889,7 +2823,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2898,23 +2832,21 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -2938,13 +2870,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -2962,13 +2892,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -2977,24 +2907,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3002,7 +2932,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3017,20 +2947,16 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3078,7 +3004,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3096,13 +3022,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -3118,31 +3044,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3168,13 +3094,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3198,7 +3124,7 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -3210,7 +3136,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3221,10 +3147,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3244,16 +3170,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3304,7 +3230,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3316,27 +3242,27 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3347,7 +3273,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3359,17 +3285,15 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3394,63 +3318,65 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3468,16 +3394,16 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3528,25 +3454,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3557,18 +3483,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -3577,24 +3503,26 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3642,7 +3570,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3654,13 +3582,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -3671,10 +3599,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3682,7 +3610,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -3697,16 +3625,18 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3742,22 +3672,20 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -3766,29 +3694,31 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3797,7 +3727,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3809,16 +3739,18 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3854,53 +3786,53 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C24" t="s" s="2">
         <v>235</v>
       </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3927,10 +3859,12 @@
         <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3978,25 +3912,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4007,46 +3941,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4094,39 +4024,39 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4134,10 +4064,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4149,18 +4079,16 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4196,20 +4124,22 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -4221,28 +4151,26 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4263,18 +4191,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4322,10 +4248,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -4334,38 +4260,38 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4377,18 +4303,18 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4436,25 +4362,25 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4465,42 +4391,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4548,39 +4478,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4591,7 +4521,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4603,13 +4533,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4660,7 +4590,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4675,24 +4605,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4715,13 +4645,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4772,7 +4702,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4784,473 +4714,19 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T13:55:20+00:00</t>
+    <t>2025-08-14T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:15:22+00:00</t>
+    <t>2025-08-18T13:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:25:21+00:00</t>
+    <t>2025-08-18T17:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T17:36:35+00:00</t>
+    <t>2025-08-19T07:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:49:07+00:00</t>
+    <t>2025-08-19T08:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:39:15+00:00</t>
+    <t>2025-08-19T16:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T16:40:37+00:00</t>
+    <t>2025-08-20T14:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:11:18+00:00</t>
+    <t>2025-08-20T15:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T15:16:03+00:00</t>
+    <t>2025-08-21T07:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:11:23+00:00</t>
+    <t>2025-08-21T07:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:13:53+00:00</t>
+    <t>2025-08-21T07:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:15:25+00:00</t>
+    <t>2025-08-21T07:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:17:21+00:00</t>
+    <t>2025-08-21T07:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:22:00+00:00</t>
+    <t>2025-08-21T07:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:24:06+00:00</t>
+    <t>2025-08-21T07:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
